--- a/docs/misc/model_class_uml.xlsx
+++ b/docs/misc/model_class_uml.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Rev6(プロパティのみ)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -1391,6 +1392,49 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>569628</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>56071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="14971428" cy="8628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1664,8 +1708,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA45" sqref="AA45"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z51" sqref="Z51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1675,4 +1719,22 @@
   <pageSetup paperSize="8" scale="89" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="73" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>